--- a/Coupon Data/Coupon ID DataSheet.xlsx
+++ b/Coupon Data/Coupon ID DataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saschastevens/Desktop/SurfURS/Coupon Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB66C58A-75CC-374E-82B8-97C40ABCCF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C996A0D-0EDC-6B48-B9E2-EA14D4938749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{D3DA2DBE-30A8-2341-B5B3-919179C8B8BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Balsa_Wood_Stringer_ID</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>2 Piece balsa stringer</t>
+  </si>
+  <si>
+    <t>Baltic_Birchwood_DIB_Stringer_ID</t>
+  </si>
+  <si>
+    <t>Solid Balsa Stringer- Slightly Damaged by plainar in dib</t>
   </si>
 </sst>
 </file>
@@ -86,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,18 +409,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B063D3-53D9-174A-AE56-49DFF28A051E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +432,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -432,10 +450,16 @@
         <v>136.5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>201</v>
+      </c>
+      <c r="G2">
+        <v>126.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -445,8 +469,14 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="F3">
+        <v>202</v>
+      </c>
+      <c r="G3">
+        <v>124.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -456,8 +486,14 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="F4">
+        <v>203</v>
+      </c>
+      <c r="G4">
+        <v>126.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -466,6 +502,12 @@
       </c>
       <c r="C5" t="s">
         <v>3</v>
+      </c>
+      <c r="F5">
+        <v>204</v>
+      </c>
+      <c r="G5">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Coupon Data/Coupon ID DataSheet.xlsx
+++ b/Coupon Data/Coupon ID DataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saschastevens/Desktop/SurfURS/Coupon Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C996A0D-0EDC-6B48-B9E2-EA14D4938749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81227603-8AB9-3047-BEEA-DBD7FB86334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{D3DA2DBE-30A8-2341-B5B3-919179C8B8BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Balsa_Wood_Stringer_ID</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Solid Balsa Stringer- Slightly Damaged by plainar in dib</t>
+  </si>
+  <si>
+    <t>Descripton</t>
+  </si>
+  <si>
+    <t>Epoxy Bonded Stringer</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B063D3-53D9-174A-AE56-49DFF28A051E}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -458,6 +464,9 @@
       <c r="G2">
         <v>126.9</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -508,6 +517,17 @@
       </c>
       <c r="G5">
         <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>205</v>
+      </c>
+      <c r="G6">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
